--- a/data/2025H1/2025H1AI数据分析.xlsx
+++ b/data/2025H1/2025H1AI数据分析.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>19.2%</t>
         </is>
       </c>
       <c r="D2" t="n">
